--- a/branches/main/ValueSet-vs-med-relation-types.xlsx
+++ b/branches/main/ValueSet-vs-med-relation-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T19:25:57+00:00</t>
+    <t>2022-02-01T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-med-relation-types.xlsx
+++ b/branches/main/ValueSet-vs-med-relation-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T19:36:06+00:00</t>
+    <t>2022-02-02T09:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-med-relation-types.xlsx
+++ b/branches/main/ValueSet-vs-med-relation-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T09:00:48+00:00</t>
+    <t>2022-02-02T15:11:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-med-relation-types.xlsx
+++ b/branches/main/ValueSet-vs-med-relation-types.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Medication Relat" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Marketing Authorization Holder</t>
+    <t>Medication Relation Types</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:11:57+00:00</t>
+    <t>2022-03-18T08:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Marketing Authorization Holder.</t>
+    <t>Medication Relation Types.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,19 +96,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>712843002</t>
-  </si>
-  <si>
-    <t>Allergy to celery</t>
-  </si>
-  <si>
-    <t>782575000</t>
-  </si>
-  <si>
-    <t>Allergy to lupine seed</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -117,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://example.com/fhir/example/CodeSystem/Cs-med-relation-types</t>
   </si>
 </sst>
 </file>
@@ -390,7 +381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,40 +395,26 @@
       <c r="A1" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
